--- a/test.xlsx
+++ b/test.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,7 +398,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -406,7 +410,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
